--- a/Stocks/JINDALSTEL.xlsx
+++ b/Stocks/JINDALSTEL.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>114.86666666666667</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>155.06070056543086</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>UP</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>147.30336920346167</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>UP</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>UP</v>
       </c>
       <c r="N67">
         <v>81.28263462300076</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>4.2000000000000171</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>5.8000000000000114</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.72413793103448432</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>140.69319540920054</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>7.3497457513471431</v>
       </c>
       <c r="Y67">
         <v>6.1714112039171152</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>UP</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>135.5</v>
+      </c>
+      <c r="D83">
+        <v>137.1</v>
+      </c>
+      <c r="E83">
+        <v>133.05000000000001</v>
+      </c>
+      <c r="F83">
+        <v>135.69999999999999</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>135.28333333333333</v>
+      </c>
+      <c r="H83">
+        <v>134.48510733083953</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>137.50710552836131</v>
+      </c>
+      <c r="K83">
+        <v>131.60868898489093</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>53.670245162476462</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>2.6499999999999773</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>4.0499999999999829</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.65432098765431812</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>135.51602379670931</v>
+      </c>
+      <c r="W83">
+        <v>136.65590478239145</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-1.1398809856821401</v>
+      </c>
+      <c r="Y83">
+        <v>-0.33975129331759191</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>133.80000000000001</v>
+      </c>
+      <c r="D84">
+        <v>135.5</v>
+      </c>
+      <c r="E84">
+        <v>130.6</v>
+      </c>
+      <c r="F84">
+        <v>131.6</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>132.56666666666669</v>
+      </c>
+      <c r="H84">
+        <v>133.52588699875309</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>137.06108207761434</v>
+      </c>
+      <c r="K84">
+        <v>131.38453587713738</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>38.899336904189383</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>4.9000000000000057</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.20408163265306098</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>134.91355859721557</v>
+      </c>
+      <c r="W84">
+        <v>136.28139331702911</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-1.3678347198135441</v>
+      </c>
+      <c r="Y84">
+        <v>-0.54536797861678232</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>133</v>
+      </c>
+      <c r="D85">
+        <v>137.80000000000001</v>
+      </c>
+      <c r="E85">
+        <v>132.65</v>
+      </c>
+      <c r="F85">
+        <v>137.15</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>135.86666666666667</v>
+      </c>
+      <c r="H85">
+        <v>134.69627683270988</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>137.22528606036673</v>
+      </c>
+      <c r="K85">
+        <v>131.6657501266624</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>58.312570423427481</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>4.5</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>5.1500000000000057</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.87378640776698935</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>135.25762650533625</v>
+      </c>
+      <c r="W85">
+        <v>136.34573455280474</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-1.088108047468495</v>
+      </c>
+      <c r="Y85">
+        <v>-0.65391599238712483</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>136.5</v>
+      </c>
+      <c r="D86">
+        <v>137.85</v>
+      </c>
+      <c r="E86">
+        <v>134.69999999999999</v>
+      </c>
+      <c r="F86">
+        <v>137</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>136.51666666666665</v>
+      </c>
+      <c r="H86">
+        <v>135.60647174968827</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>137.36411138028524</v>
+      </c>
+      <c r="K86">
+        <v>132.34002787629296</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N86">
+        <v>57.69329254177228</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>2.3000000000000114</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>3.1500000000000057</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.73015873015873245</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>135.52568396605375</v>
+      </c>
+      <c r="W86">
+        <v>136.39419866000438</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-0.86851469395062963</v>
+      </c>
+      <c r="Y86">
+        <v>-0.69683573269982579</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>138</v>
+      </c>
+      <c r="D87">
+        <v>143.80000000000001</v>
+      </c>
+      <c r="E87">
+        <v>137.15</v>
+      </c>
+      <c r="F87">
+        <v>142.1</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>141.01666666666668</v>
+      </c>
+      <c r="H87">
+        <v>138.31156920817747</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>138.79430885133297</v>
+      </c>
+      <c r="K87">
+        <v>133.40891057045008</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>70.850076276660729</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>4.9499999999999886</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>6.6500000000000057</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.74436090225563678</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>136.53711720204547</v>
+      </c>
+      <c r="W87">
+        <v>136.81685061111517</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-0.27973340906970634</v>
+      </c>
+      <c r="Y87">
+        <v>-0.61341526797380186</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>142.94999999999999</v>
+      </c>
+      <c r="D88">
+        <v>145.9</v>
+      </c>
+      <c r="E88">
+        <v>137.69999999999999</v>
+      </c>
+      <c r="F88">
+        <v>139.25</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>140.95000000000002</v>
+      </c>
+      <c r="H88">
+        <v>139.63078460408875</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>140.37335132881452</v>
+      </c>
+      <c r="K88">
+        <v>134.36248599923894</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>58.20585999711723</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>1.5500000000000114</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>8.2000000000000171</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.18902439024390344</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>136.95448378634617</v>
+      </c>
+      <c r="W88">
+        <v>136.99708389918072</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-4.2600112834549009E-2</v>
+      </c>
+      <c r="Y88">
+        <v>-0.49925223694595128</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>140.5</v>
+      </c>
+      <c r="D89">
+        <v>142.80000000000001</v>
+      </c>
+      <c r="E89">
+        <v>139.19999999999999</v>
+      </c>
+      <c r="F89">
+        <v>140.05000000000001</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>140.68333333333334</v>
+      </c>
+      <c r="H89">
+        <v>140.15705896871106</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J89">
+        <v>140.91260658907797</v>
+      </c>
+      <c r="K89">
+        <v>135.43748911051918</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N89">
+        <v>60.66874715489147</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>0.85000000000002274</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>3.6000000000000227</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.23611111111111593</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>137.43071704998522</v>
+      </c>
+      <c r="W89">
+        <v>137.22322583257474</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>0.20749121741047816</v>
+      </c>
+      <c r="Y89">
+        <v>-0.35790354607466535</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>139.69999999999999</v>
+      </c>
+      <c r="D90">
+        <v>143.30000000000001</v>
+      </c>
+      <c r="E90">
+        <v>138.30000000000001</v>
+      </c>
+      <c r="F90">
+        <v>141.5</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>141.03333333333333</v>
+      </c>
+      <c r="H90">
+        <v>140.59519615102221</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>141.44313845817175</v>
+      </c>
+      <c r="K90">
+        <v>136.07360264151492</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N90">
+        <v>65.301393834410931</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>3.1999999999999886</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.63999999999999768</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>138.05676058075673</v>
+      </c>
+      <c r="W90">
+        <v>137.5400239190507</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>0.51673666170603383</v>
+      </c>
+      <c r="Y90">
+        <v>-0.18297550451852551</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>142.4</v>
+      </c>
+      <c r="D91">
+        <v>143.4</v>
+      </c>
+      <c r="E91">
+        <v>140.55000000000001</v>
+      </c>
+      <c r="F91">
+        <v>141.65</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>141.86666666666667</v>
+      </c>
+      <c r="H91">
+        <v>141.23093140884444</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>141.87799657857803</v>
+      </c>
+      <c r="K91">
+        <v>137.06835761006715</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N91">
+        <v>65.821955140872845</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>1.0999999999999943</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>2.8499999999999943</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.38596491228070051</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>138.60956664525568</v>
+      </c>
+      <c r="W91">
+        <v>137.8444665917136</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>0.76510005354208488</v>
+      </c>
+      <c r="Y91">
+        <v>6.6396070935965668E-3</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>143</v>
+      </c>
+      <c r="D92">
+        <v>145.19999999999999</v>
+      </c>
+      <c r="E92">
+        <v>140.44999999999999</v>
+      </c>
+      <c r="F92">
+        <v>141.55000000000001</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>142.4</v>
+      </c>
+      <c r="H92">
+        <v>141.81546570442222</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>142.61621956111625</v>
+      </c>
+      <c r="K92">
+        <v>137.81983369671889</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>65.009211636137024</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>1.1000000000000227</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>4.75</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.23157894736842585</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>139.06194100752404</v>
+      </c>
+      <c r="W92">
+        <v>138.11895054788297</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>0.94299045964106654</v>
+      </c>
+      <c r="Y92">
+        <v>0.19390977760309058</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>143.25</v>
+      </c>
+      <c r="D93">
+        <v>144</v>
+      </c>
+      <c r="E93">
+        <v>141.05000000000001</v>
+      </c>
+      <c r="F93">
+        <v>143.5</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>142.85</v>
+      </c>
+      <c r="H93">
+        <v>142.33273285221111</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>142.92372632531263</v>
+      </c>
+      <c r="K93">
+        <v>138.53764843078136</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N93">
+        <v>73.104136837042674</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>2.4499999999999886</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>2.9499999999999886</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.83050847457627053</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V93">
+        <v>139.74471931405881</v>
+      </c>
+      <c r="W93">
+        <v>138.51754680359534</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>1.2271725104634754</v>
+      </c>
+      <c r="Y93">
+        <v>0.40056232417516757</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>144.44999999999999</v>
+      </c>
+      <c r="D94">
+        <v>147.4</v>
+      </c>
+      <c r="E94">
+        <v>144.15</v>
+      </c>
+      <c r="F94">
+        <v>145.69999999999999</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>145.75</v>
+      </c>
+      <c r="H94">
+        <v>144.04136642610555</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>143.91845380857649</v>
+      </c>
+      <c r="K94">
+        <v>139.78483766838551</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>79.720443749777601</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>1.5499999999999829</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>3.25</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.47692307692307168</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>140.66091634266516</v>
+      </c>
+      <c r="W94">
+        <v>139.0495803736994</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>1.6113359689657614</v>
+      </c>
+      <c r="Y94">
+        <v>0.64271705313328642</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>146.1</v>
+      </c>
+      <c r="D95">
+        <v>146.9</v>
+      </c>
+      <c r="E95">
+        <v>141.15</v>
+      </c>
+      <c r="F95">
+        <v>142</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>143.35</v>
+      </c>
+      <c r="H95">
+        <v>143.69568321305277</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>144.58101962889282</v>
+      </c>
+      <c r="K95">
+        <v>140.08820707541096</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>52.546073785566229</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>0.84999999999999432</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>5.75</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.14782608695652075</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>140.86692921302438</v>
+      </c>
+      <c r="W95">
+        <v>139.26812997564758</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>1.5987992373767952</v>
+      </c>
+      <c r="Y95">
+        <v>0.83393348998198813</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>142.80000000000001</v>
+      </c>
+      <c r="D96">
+        <v>148.15</v>
+      </c>
+      <c r="E96">
+        <v>142.5</v>
+      </c>
+      <c r="F96">
+        <v>147.30000000000001</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>145.98333333333332</v>
+      </c>
+      <c r="H96">
+        <v>144.83950827319305</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J96">
+        <v>145.37412637802774</v>
+      </c>
+      <c r="K96">
+        <v>140.62416105865296</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N96">
+        <v>70.531788825322636</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>4.8000000000000114</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>5.6500000000000057</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.84955752212389501</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V96">
+        <v>141.85663241102063</v>
+      </c>
+      <c r="W96">
+        <v>139.86308331078479</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>1.993549100235839</v>
+      </c>
+      <c r="Y96">
+        <v>1.0658566120327584</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>145.4</v>
+      </c>
+      <c r="D97">
+        <v>150.65</v>
+      </c>
+      <c r="E97">
+        <v>143.65</v>
+      </c>
+      <c r="F97">
+        <v>149.19999999999999</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>147.83333333333334</v>
+      </c>
+      <c r="H97">
+        <v>146.3364208032632</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J97">
+        <v>146.54654273846603</v>
+      </c>
+      <c r="K97">
+        <v>141.29656971228565</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N97">
+        <v>74.810077907559574</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>5.5499999999999829</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>7</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.79285714285714037</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>142.9863812708636</v>
+      </c>
+      <c r="W97">
+        <v>140.55470676924517</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>2.4316745016184313</v>
+      </c>
+      <c r="Y97">
+        <v>1.339020189949893</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>150.1</v>
+      </c>
+      <c r="D98">
+        <v>152.35</v>
+      </c>
+      <c r="E98">
+        <v>148.44999999999999</v>
+      </c>
+      <c r="F98">
+        <v>150.75</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>150.51666666666665</v>
+      </c>
+      <c r="H98">
+        <v>148.42654373496492</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>147.8361999076958</v>
+      </c>
+      <c r="K98">
+        <v>142.88622088733328</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N98">
+        <v>78.058489066588791</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>2.3000000000000114</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>3.9000000000000057</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.58974358974359176</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>144.18078415226921</v>
+      </c>
+      <c r="W98">
+        <v>141.30991367522702</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>2.8708704770421889</v>
+      </c>
+      <c r="Y98">
+        <v>1.6453902473683522</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>151</v>
+      </c>
+      <c r="D99">
+        <v>153.25</v>
+      </c>
+      <c r="E99">
+        <v>150</v>
+      </c>
+      <c r="F99">
+        <v>151</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>151.41666666666666</v>
+      </c>
+      <c r="H99">
+        <v>149.9216052008158</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>149.0392665948745</v>
+      </c>
+      <c r="K99">
+        <v>144.46706069014812</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N99">
+        <v>78.614498215540337</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>3.25</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>145.22989428268934</v>
+      </c>
+      <c r="W99">
+        <v>142.02769784743242</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>3.2021964352569228</v>
+      </c>
+      <c r="Y99">
+        <v>1.9567514849460663</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>152</v>
+      </c>
+      <c r="D100">
+        <v>154.69999999999999</v>
+      </c>
+      <c r="E100">
+        <v>151.25</v>
+      </c>
+      <c r="F100">
+        <v>152.5</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>152.81666666666666</v>
+      </c>
+      <c r="H100">
+        <v>151.36913593374123</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J100">
+        <v>150.29720735156906</v>
+      </c>
+      <c r="K100">
+        <v>145.97438053678187</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N100">
+        <v>82.029803278968544</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>1.25</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>3.4499999999999886</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.36231884057971137</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>146.34837208535251</v>
+      </c>
+      <c r="W100">
+        <v>142.80342393280779</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>3.5449481525447197</v>
+      </c>
+      <c r="Y100">
+        <v>2.2743908184657968</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>152.9</v>
+      </c>
+      <c r="D101">
+        <v>154.44999999999999</v>
+      </c>
+      <c r="E101">
+        <v>148.75</v>
+      </c>
+      <c r="F101">
+        <v>151.85</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>151.68333333333331</v>
+      </c>
+      <c r="H101">
+        <v>151.52623463353729</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J101">
+        <v>151.22005016233149</v>
+      </c>
+      <c r="K101">
+        <v>146.59118486194146</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N101">
+        <v>75.49876796140434</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>3.0999999999999943</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>5.6999999999999886</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.54385964912280715</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>147.19477637991366</v>
+      </c>
+      <c r="W101">
+        <v>143.47354067852572</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>3.7212357013879398</v>
+      </c>
+      <c r="Y101">
+        <v>2.5637597950502253</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>150.75</v>
+      </c>
+      <c r="D102">
+        <v>150.75</v>
+      </c>
+      <c r="E102">
+        <v>138.65</v>
+      </c>
+      <c r="F102">
+        <v>139.9</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>143.1</v>
+      </c>
+      <c r="H102">
+        <v>147.31311731676863</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>151.11559457070226</v>
+      </c>
+      <c r="K102">
+        <v>144.82647711484336</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>26.681035436335758</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>1.25</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>12.099999999999994</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.10330578512396699</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V102">
+        <v>146.07250309069619</v>
+      </c>
+      <c r="W102">
+        <v>143.20883396159789</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>2.8636691290982981</v>
+      </c>
+      <c r="Y102">
+        <v>2.6237416618598397</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>139.6</v>
+      </c>
+      <c r="D103">
+        <v>139.85</v>
+      </c>
+      <c r="E103">
+        <v>131.9</v>
+      </c>
+      <c r="F103">
+        <v>133.65</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>135.13333333333333</v>
+      </c>
+      <c r="H103">
+        <v>141.22322532505098</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>148.61212911054619</v>
+      </c>
+      <c r="K103">
+        <v>141.95392664487818</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>18.753448617370985</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>1.75</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>7.9499999999999886</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.22012578616352232</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>144.16134876905062</v>
+      </c>
+      <c r="W103">
+        <v>142.5007721866647</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>1.6605765823859144</v>
+      </c>
+      <c r="Y103">
+        <v>2.4311086459650548</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>134.6</v>
+      </c>
+      <c r="D104">
+        <v>139.19999999999999</v>
+      </c>
+      <c r="E104">
+        <v>132.19999999999999</v>
+      </c>
+      <c r="F104">
+        <v>138.1</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>136.5</v>
+      </c>
+      <c r="H104">
+        <v>138.86161266252549</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>146.52054486375815</v>
+      </c>
+      <c r="K104">
+        <v>139.78638739046082</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>35.745068960102664</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>5.9000000000000057</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>7</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.84285714285714364</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>143.22883357381207</v>
+      </c>
+      <c r="W104">
+        <v>142.17478906172659</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>1.0540445120854827</v>
+      </c>
+      <c r="Y104">
+        <v>2.1556958191891402</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>139.25</v>
+      </c>
+      <c r="D105">
+        <v>140.5</v>
+      </c>
+      <c r="E105">
+        <v>132.5</v>
+      </c>
+      <c r="F105">
+        <v>132.9</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>135.29999999999998</v>
+      </c>
+      <c r="H105">
+        <v>137.08080633126275</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>145.18264600514522</v>
+      </c>
+      <c r="K105">
+        <v>138.16719019258065</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>27.38078009733777</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>0.40000000000000568</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>8</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>5.0000000000000711E-2</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V105">
+        <v>141.63978225476407</v>
+      </c>
+      <c r="W105">
+        <v>141.48776764974684</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>0.15201460501722863</v>
+      </c>
+      <c r="Y105">
+        <v>1.7549595763547579</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD105">
+        <f t="shared" si="35"/>
+        <v>139.6</v>
+      </c>
+      <c r="AE105">
+        <f t="shared" si="36"/>
+        <v>137.45000000000002</v>
+      </c>
+      <c r="AF105">
+        <f t="shared" si="37"/>
+        <v>136.5</v>
+      </c>
+      <c r="AG105">
+        <f t="shared" si="38"/>
+        <v>135.55000000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>135.94999999999999</v>
+      </c>
+      <c r="D106">
+        <v>137.35</v>
+      </c>
+      <c r="E106">
+        <v>133.35</v>
+      </c>
+      <c r="F106">
+        <v>134</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>134.9</v>
+      </c>
+      <c r="H106">
+        <v>135.99040316563139</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J106">
+        <v>143.44205800400184</v>
+      </c>
+      <c r="K106">
+        <v>137.09670348311829</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N106">
+        <v>31.612243552847115</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>0.65000000000000568</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.16250000000000142</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V106">
+        <v>140.46443113864652</v>
+      </c>
+      <c r="W106">
+        <v>140.93311819421004</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>-0.46868705556352097</v>
+      </c>
+      <c r="Y106">
+        <v>1.310230249971102</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD106">
+        <f t="shared" si="35"/>
+        <v>136.9</v>
+      </c>
+      <c r="AE106">
+        <f t="shared" si="36"/>
+        <v>135.80000000000001</v>
+      </c>
+      <c r="AF106">
+        <f t="shared" si="37"/>
+        <v>135.35</v>
+      </c>
+      <c r="AG106">
+        <f t="shared" si="38"/>
+        <v>134.9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>135.5</v>
+      </c>
+      <c r="D107">
+        <v>136.5</v>
+      </c>
+      <c r="E107">
+        <v>133.65</v>
+      </c>
+      <c r="F107">
+        <v>135.15</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>135.1</v>
+      </c>
+      <c r="H107">
+        <v>135.54520158281571</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J107">
+        <v>141.89937844755698</v>
+      </c>
+      <c r="K107">
+        <v>136.33076937575868</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N107">
+        <v>36.451301718789971</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>1.5</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>2.8499999999999943</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.52631578947368529</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>139.64682634808551</v>
+      </c>
+      <c r="W107">
+        <v>140.50473906871301</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>-0.85791272062749613</v>
+      </c>
+      <c r="Y107">
+        <v>0.87660165585138228</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
